--- a/bookbag/testing/data/test.xlsx
+++ b/bookbag/testing/data/test.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31880" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="31880" yWindow="0" windowWidth="19320" windowHeight="15480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="课前自主学习" sheetId="1" r:id="rId1"/>
+    <sheet name="课堂互动探究" sheetId="2" r:id="rId2"/>
+    <sheet name="课后巩固提升" sheetId="3" r:id="rId3"/>
+    <sheet name="限时规范训练" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="部分">工作表1!$A:$A</definedName>
-    <definedName name="题号">工作表1!$B:$B</definedName>
+    <definedName name="部分">课前自主学习!$A:$A</definedName>
+    <definedName name="题号">课前自主学习!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,70 +26,1533 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="200">
   <si>
     <t>单选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是非</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李白,杜甫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词扫描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-(2)- ②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-(2)- ③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-(2)- ④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-(2)- ⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-(1)- ③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-(2)- ④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-(3)- ⑦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-(3)- ④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-(1)- ②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-(2)- ③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-(2)- ④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-(2)- ⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-(1)- ③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-(1)- ②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(1)- ②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(1)- ③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(2)- ⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8- ②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8- ③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语释义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-(4)- ⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-(4)- ⑥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-(4)- ⑦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句式突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2- ③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2- ④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1- ⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1- ④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3- ①</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3- ⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3- ⑥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“I was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frightening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on my first day…”中“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frightening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frightened</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“Unlink many other</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> classmate,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I sat quietly…”中“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classmate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classmates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“My teacher spoke fast and I had a hard time </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>understand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> him”中“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>understand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>understanding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“I have to struggle to understand </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is being said in class”中“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Reading and writing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> equally as important as listening and speaking”中“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“When my classes stared to get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>busy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,the readings got longer.”中“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>busy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>busier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“English,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without a doubt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,is the hardest thing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I experienced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so far.”中“without a doubt”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without doubt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I experienced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I have experienced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Though</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'm a Chinese student ,communicating fluently with A mericans can be really </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diffcultly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”中“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Though</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Because/As</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diffcultly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”改为“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diffcult</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-(3)- ⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scientific,science,scientist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclude,conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cure,curable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollute,pollution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announce,announcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruct,instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge,challenging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyse,analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw a conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose...to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link…to…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with certainty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent…form…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor,do,I,care,about,it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will,drop,in,on,me,every,time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggested,tha, he,was,happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>题号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选项个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>答案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concluded with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reached the conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to attend the meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attend on her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have an urgent matter to attend to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>won</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose yourself to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose him to the police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was absorbed in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absorbed in his work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blamed the traffic accident on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to blame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to put the blame on me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announce to your class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has been announced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put,through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can you pout aside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put,away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be connected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The last time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>going to the park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the work(should) be started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he was cery happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concluded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorbed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join,in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take part in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joined in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concluded form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The doctor suggested he bot work deep ioto the night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The girl neither sang nor danced at the party.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They suspected him of killing the girl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He drew a conclusion that all he has done was useless.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A better plan was  put forward at yesterday's meeting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characteristics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cured him of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should make good use of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seemed that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has been announced that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>must be linked to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neither,nor,has seen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who is to blame for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cured him of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句意：--这个周末我们改变一下，去野营周末样？--好的，你想做什么都可以。Whichever无论什么；哪一个；however无论怎样；whatever无论什么；whoever无论谁，指人。Want为及物动词，缺少宾语，whatever一般在从句中作主语、宾语、定语或表语。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come to a conclusion意为“得出一个结论”，如果conclusion后有同位语从句，则不定冠词变为定冠词the，意为“得出这个……的结论”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据宾语从句中的位于用动词原形get,make可以判断此处是虚拟语气，四个动词中只有suggest表建议时，后跟的橘子用虚拟语气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考查动词短语的区别。句意：没有人能提出比正在考虑终端额计划更好的计划了。B项意为“提出”。A项应改为come up with,C、D放在此处不符合句意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考查动词搭配。第一空强调治疗过程，应用treatment；第二空表示治疗结果，固定搭配为cure sb.of one's disease.句意：经过两周的治疗后，医生成功地治愈了我的头疼病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3- ②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考查非谓语动词的用法。此句中非谓语动词在句中作原因状语。Alice是被责备的对象，故需用过去分词的形式表示被动意义。句意：艾丽丝因为使学校电脑网络瘫痪而被责备，她情绪低落。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose to是固定搭配，意为“使暴露于；接触”，也可用作expose…to…表示“把……暴露于……”“使……接触，使体验”。第一空前的to是不定式符号，其后要用动词原形，故选B。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句意：减少贫富差距是这届政府面临的首要问题。Challenge“挑战”；difficulty“困难”；problem“问题”；conflict“矛盾，冲突”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句意：敌人在一次决定性的战役中被打败了。defeat“打败，击败”；attack“进攻，共计”；shock“震惊”；win“赢得”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句意：是什么让你怀疑是她拿走了钱？suspect sb.of doing sth.“怀疑某人做了某事”；convince sb .of doing sth.“说服某人做了某事”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent sb (from)doing sth.阻止某人干某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspired受到鼓舞的；inspiring鼓舞人心的，令人鼓舞的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not only…but also…连接并列主语时，谓语动词要按照就近原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句意：约翰踢球如果不比大卫好的话，就和他踢的一样好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look frward to sth.\doing sth.中“to”是介词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据cook的工作性质以及后面的“onions and carrots”可知cook是把矩形平面看成一张可以用来切东西的桌子，所以选A。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据artist的工作以及后面提到的“…he could reproduce on canvas”可知应该选colors符合意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体都是处在运动之中，所以电子（electrons)是在旋转，所以选spinning符合语境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹豫各自的角度不同，所以对一个物体的看法也不同。与前面一句为“Which one had knowledge?”相对应可推出后面的空选right。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从“a delicious bowl of vegetable soup for lunch”可知选C。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、C、D三项都不能确切地表述cook切菜的工具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据后面的“…if what we want is a picture…”再结合上一段的叙述可知用likewise（同样地）符合上下文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在墙壁上挂画当然是起一种装饰性的作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据“…nor will spinng electrons…”可知应该是对前一句的动词get的重复，所以用do代替。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在短文的开始已经提到过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据后面的一句可知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据后面的“…all the puzzle pieces fit tobether”可知应该选match（相匹配）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while此处表示“虽然；尽管”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据“solving thatpuzzl”可知应选solution.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据句意的语气选even。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据上文“outside the borders…”的提示，再结合上下文可知选beyond。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据后面的“Words are divisive.”可推断出此处应该是两者之间的关系，所以选C。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据前面的“…between our experiences and the words use to chop them up.”可知此处应该填A项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据文章开始可知cook,artist,physicist对一个物体有着各自不同的解释，所以选D项符合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist知道装饰房间如何做，所以选C项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat;defeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat;defeated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,17 +1562,8 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -121,6 +1578,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +1604,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,22 +1612,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,116 +2044,3714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="11" style="1"/>
+    <col min="5" max="5" width="31" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" s="27" customFormat="1">
+      <c r="A10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="25">
+        <v>2</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="23" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G11" s="4">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="16">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="4">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="4">
+        <v>6</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="4">
+        <v>6</v>
+      </c>
+      <c r="G26" s="16">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="4">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="4">
+        <v>6</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="4">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="4">
+        <v>6</v>
+      </c>
+      <c r="G30" s="16">
+        <v>4</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="4">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="4">
+        <v>6</v>
+      </c>
+      <c r="G32" s="16">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="4">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6</v>
+      </c>
+      <c r="G34" s="16">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="4">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="4">
+        <v>6</v>
+      </c>
+      <c r="G36" s="16">
+        <v>5</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="4">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="16">
+        <v>5</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="4">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="4">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="4">
+        <v>6</v>
+      </c>
+      <c r="G40" s="16">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="4">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="4">
+        <v>6</v>
+      </c>
+      <c r="G42" s="16">
+        <v>5</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="4">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="4">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="4">
+        <v>6</v>
+      </c>
+      <c r="G44" s="16">
+        <v>5</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="4">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="11.33203125" style="21" customWidth="1"/>
+    <col min="6" max="7" width="8.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="84.83203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="16">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="16">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="4">
+        <v>8</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="4">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4">
+        <v>8</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4">
+        <v>8</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="4">
+        <v>8</v>
+      </c>
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="4">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="4">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="4">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="4">
+        <v>8</v>
+      </c>
+      <c r="G42" s="4">
+        <v>4</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="4">
+        <v>8</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="4">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4">
+        <v>4</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
